--- a/biology/Zoologie/Brassolini/Brassolini.xlsx
+++ b/biology/Zoologie/Brassolini/Brassolini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassolini est une tribu de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Morphinae.
 </t>
@@ -511,12 +523,12 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette tribu a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836.
-Synonymes
-Brassolinae
-Brassolidae</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu a été décrite par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1836.
+</t>
         </is>
       </c>
     </row>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Brassolinae
+Brassolidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brassolini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassolini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sous-tribu Biina
 Bia Hübner, 1819
